--- a/BackTest/2019-10-27 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-27 BackTest LAMB.xlsx
@@ -8361,13 +8361,17 @@
         <v>35.03333333333333</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>35</v>
+      </c>
+      <c r="K228" t="n">
+        <v>35</v>
+      </c>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
@@ -8396,14 +8400,22 @@
         <v>35</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>35</v>
+      </c>
+      <c r="K229" t="n">
+        <v>35</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8431,14 +8443,22 @@
         <v>35</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>35</v>
+      </c>
+      <c r="K230" t="n">
+        <v>35</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8466,14 +8486,22 @@
         <v>35.03333333333333</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>35</v>
+      </c>
+      <c r="K231" t="n">
+        <v>35</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8501,14 +8529,22 @@
         <v>35.03333333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>35</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +8578,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>35</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8577,8 +8619,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>35</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8612,8 +8660,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>35</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8647,8 +8701,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>35</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8682,8 +8742,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>35</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8717,8 +8783,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>35</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8752,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>35</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8787,8 +8865,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>35</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8822,8 +8906,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>35</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8857,8 +8947,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>35</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8892,8 +8988,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>35</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8927,8 +9029,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>35</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8962,8 +9070,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>35</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8997,8 +9111,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>35</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9032,8 +9152,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>35</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9193,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>35</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +9234,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>35</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9137,8 +9275,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>35</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9172,8 +9316,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>35</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9207,8 +9357,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>35</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9398,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>35</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9277,8 +9439,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>35</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9312,8 +9480,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>35</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9347,8 +9521,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>35</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9382,8 +9562,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>35</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9417,8 +9603,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>35</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9452,8 +9644,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>35</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9487,8 +9685,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>35</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9522,8 +9726,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>35</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9557,8 +9767,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>35</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9592,8 +9808,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>35</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9627,8 +9849,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>35</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9662,8 +9890,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>35</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +9931,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>35</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9732,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>35</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9767,8 +10013,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>35</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9802,8 +10054,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>35</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9831,14 +10089,22 @@
         <v>34.2666666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K270" t="n">
+        <v>35</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9866,14 +10132,22 @@
         <v>34.26666666666669</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K271" t="n">
+        <v>35</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9901,14 +10175,22 @@
         <v>34.23333333333336</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K272" t="n">
+        <v>35</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9936,18 +10218,20 @@
         <v>34.26666666666669</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L273" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9982,11 +10266,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M274" t="n">
@@ -10016,20 +10300,18 @@
         <v>34.40000000000003</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M275" t="n">
@@ -10059,16 +10341,14 @@
         <v>34.43333333333336</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10111,7 +10391,7 @@
         <v>34.4</v>
       </c>
       <c r="K277" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10145,16 +10425,14 @@
         <v>34.3666666666667</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10194,10 +10472,10 @@
         <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="K279" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10231,16 +10509,14 @@
         <v>34.33333333333336</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10283,7 +10559,7 @@
         <v>34.4</v>
       </c>
       <c r="K281" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10317,16 +10593,14 @@
         <v>34.60000000000003</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10360,16 +10634,14 @@
         <v>34.56666666666669</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10403,16 +10675,14 @@
         <v>34.50000000000003</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10446,16 +10716,14 @@
         <v>34.23333333333337</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10495,10 +10763,10 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="K286" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -10541,7 +10809,7 @@
         <v>34.3</v>
       </c>
       <c r="K287" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -10575,16 +10843,14 @@
         <v>34.23333333333337</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -10618,16 +10884,14 @@
         <v>34.20000000000004</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -10661,16 +10925,14 @@
         <v>34.20000000000004</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -10704,16 +10966,14 @@
         <v>34.20000000000004</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>34.8</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -10747,16 +11007,14 @@
         <v>34.16666666666671</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -10790,16 +11048,14 @@
         <v>34.16666666666671</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -10833,16 +11089,14 @@
         <v>34.16666666666671</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -10876,16 +11130,14 @@
         <v>34.40000000000004</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>34.8</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -10919,16 +11171,14 @@
         <v>34.60000000000004</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -10962,16 +11212,14 @@
         <v>34.6666666666667</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11005,24 +11253,22 @@
         <v>34.53333333333337</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="n">
-        <v>34.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>1</v>
+        <v>0.9778571428571428</v>
       </c>
     </row>
     <row r="299">
@@ -11048,22 +11294,14 @@
         <v>34.3666666666667</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K299" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11091,22 +11329,14 @@
         <v>34.50000000000003</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K300" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11134,22 +11364,14 @@
         <v>34.60000000000003</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K301" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11177,22 +11399,14 @@
         <v>34.76666666666669</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K302" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11220,22 +11434,14 @@
         <v>34.90000000000003</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="K303" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11263,22 +11469,14 @@
         <v>35.1666666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="K304" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11306,22 +11504,14 @@
         <v>35.3666666666667</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K305" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11355,14 +11545,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11396,14 +11580,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11437,14 +11615,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11478,14 +11650,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11519,14 +11685,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11560,14 +11720,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11601,14 +11755,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11642,14 +11790,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11683,14 +11825,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11724,14 +11860,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11765,14 +11895,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11806,14 +11930,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11847,14 +11965,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11888,14 +12000,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +12035,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11970,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12011,14 +12105,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12052,14 +12140,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12093,14 +12175,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12134,14 +12210,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12175,14 +12245,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12216,14 +12280,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12257,14 +12315,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12298,14 +12350,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12339,14 +12385,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12380,14 +12420,8 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12421,14 +12455,8 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12462,14 +12490,8 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12503,14 +12525,8 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12544,14 +12560,8 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12585,14 +12595,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12626,14 +12630,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12667,14 +12665,8 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12708,14 +12700,8 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12749,14 +12735,8 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12790,14 +12770,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12831,14 +12805,8 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12872,14 +12840,8 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12913,14 +12875,8 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12954,14 +12910,8 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12995,14 +12945,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13036,14 +12980,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13077,14 +13015,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13118,14 +13050,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13159,14 +13085,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13200,14 +13120,8 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13241,14 +13155,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13282,14 +13190,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13323,14 +13225,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13364,14 +13260,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13405,14 +13295,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13446,14 +13330,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13487,14 +13365,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13528,14 +13400,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13569,14 +13435,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13610,14 +13470,8 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13651,14 +13505,8 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13692,14 +13540,8 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13733,14 +13575,8 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13774,14 +13610,8 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13815,14 +13645,8 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13856,14 +13680,8 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13897,14 +13715,8 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13938,14 +13750,8 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13979,14 +13785,8 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14020,14 +13820,8 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14061,14 +13855,8 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14102,14 +13890,8 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14143,14 +13925,8 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14184,14 +13960,8 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14225,14 +13995,8 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14266,14 +14030,8 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14307,14 +14065,8 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14348,14 +14100,8 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14389,14 +14135,8 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14430,14 +14170,8 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14471,14 +14205,8 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14512,14 +14240,8 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14553,14 +14275,8 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14594,14 +14310,8 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14635,14 +14345,8 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14676,14 +14380,8 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14717,14 +14415,8 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14758,14 +14450,8 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14799,14 +14485,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14840,14 +14520,8 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14881,14 +14555,8 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14922,14 +14590,8 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14963,14 +14625,8 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15004,14 +14660,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15045,14 +14695,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15086,14 +14730,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15127,14 +14765,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15168,14 +14800,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15209,14 +14835,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15250,14 +14870,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15291,14 +14905,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15332,14 +14940,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15373,14 +14975,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15414,14 +15010,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15455,14 +15045,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15496,14 +15080,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15537,14 +15115,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15578,14 +15150,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15619,14 +15185,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15660,14 +15220,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15701,14 +15255,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15742,14 +15290,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +15325,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15824,14 +15360,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15865,14 +15395,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15906,14 +15430,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15947,14 +15465,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15988,14 +15500,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16029,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16070,14 +15570,8 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16111,14 +15605,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16152,14 +15640,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16193,14 +15675,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16234,14 +15710,8 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16275,14 +15745,8 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16316,14 +15780,8 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16357,14 +15815,8 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16398,14 +15850,8 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16439,14 +15885,8 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16480,14 +15920,8 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16521,14 +15955,8 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16562,14 +15990,8 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16603,14 +16025,8 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16644,14 +16060,8 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16685,14 +16095,8 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16726,14 +16130,8 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16767,14 +16165,8 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16808,14 +16200,8 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16849,14 +16235,8 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16890,14 +16270,8 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16931,14 +16305,8 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16972,14 +16340,8 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17013,14 +16375,8 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17054,14 +16410,8 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17095,14 +16445,8 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17136,14 +16480,8 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17177,14 +16515,8 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17218,14 +16550,8 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17259,14 +16585,8 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17300,14 +16620,8 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17341,14 +16655,8 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17382,14 +16690,8 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17423,14 +16725,8 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17464,14 +16760,8 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17505,14 +16795,8 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17546,14 +16830,8 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17587,14 +16865,8 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17628,14 +16900,8 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17669,14 +16935,8 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17710,14 +16970,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17751,14 +17005,8 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17792,14 +17040,8 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17833,14 +17075,8 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17874,14 +17110,8 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17915,14 +17145,8 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17956,14 +17180,8 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17997,14 +17215,8 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18038,14 +17250,8 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18079,14 +17285,8 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18117,19 +17317,13 @@
         <v>0</v>
       </c>
       <c r="I471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
-        <v>1.053309037900875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -18158,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
@@ -18193,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
@@ -18228,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
@@ -18263,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
@@ -18298,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
@@ -18438,7 +17632,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
@@ -18508,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
@@ -18543,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
@@ -18578,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
@@ -18613,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
@@ -18648,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
@@ -18683,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
@@ -18718,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-27 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-604638.9589</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-600806.7823</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-600791.9323</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-620312.0682</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-621812.0682</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-621566.5179352631</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-681930.4546352631</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-774039.1061352631</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-913402.1741352631</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-927623.1741352631</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-927608.3241352631</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-929108.3241352631</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-930108.3241352631</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-929474.2623352631</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-929858.2623352631</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-944248.0227352631</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-941952.645701842</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-991022.631268421</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-998785.631268421</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1077097.631268421</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1141481.693268421</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1141481.693268421</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1141481.693268421</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1141481.693268421</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1178252.201068421</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1231333.126168421</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1252417.210668421</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1247040.018683448</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1247040.018683448</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1233170.041983448</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1221533.493483448</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1256914.505983448</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1112792.146883448</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1114792.146883448</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1172992.146883448</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1160592.146883448</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1210145.194083448</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1208063.694083448</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1206563.694083448</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1206563.694083448</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1208063.694083448</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1208063.694083448</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1208063.694083448</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1178763.694083448</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1190763.694083448</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1190763.694083448</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1235363.694083448</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1208010.694083448</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1210520.694083448</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1208020.694083448</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1208020.694083448</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1209020.694083448</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1209020.694083448</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1207520.694083448</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1207520.694083448</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1218720.694083448</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1231110.694083448</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1231110.694083448</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1231110.694083448</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1231110.694083448</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1218999.694083448</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -11374,10 +11374,14 @@
         <v>-3658499.663507346</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J333" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
@@ -11407,11 +11411,19 @@
         <v>-3660202.663507346</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J334" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11452,19 @@
         <v>-3642702.663507346</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J335" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11493,19 @@
         <v>-3642702.663507346</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J336" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11534,19 @@
         <v>-3672644.663507346</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J337" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,15 +11575,17 @@
         <v>-3672644.663507346</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>34.3</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
@@ -11578,12 +11616,14 @@
         <v>-3611185.750507345</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>34.3</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11617,12 +11657,14 @@
         <v>-3611185.750507345</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>34.4</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11656,12 +11698,14 @@
         <v>-3589214.959995354</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>34.4</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11695,10 +11739,14 @@
         <v>-3618265.275195354</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>35</v>
+      </c>
+      <c r="J342" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,10 +11780,14 @@
         <v>-3679378.733495354</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J343" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11769,10 +11821,14 @@
         <v>-3679378.733495354</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J344" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11806,10 +11862,14 @@
         <v>-3567762.692695354</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J345" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11843,12 +11903,14 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>34.3</v>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,12 +11944,14 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>34.2</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,10 +11985,14 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J348" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11958,10 +12026,14 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J349" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11995,10 +12067,14 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J350" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12032,12 +12108,14 @@
         <v>-3666738.418995354</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>34.2</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12071,10 +12149,14 @@
         <v>-3664792.134395354</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12108,12 +12190,14 @@
         <v>-3664792.134395354</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>34.2</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12147,12 +12231,14 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>34.2</v>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,12 +12272,14 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>34.8</v>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12225,12 +12313,14 @@
         <v>-3703683.304895354</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>34.8</v>
       </c>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12264,10 +12354,14 @@
         <v>-3703683.304895354</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J357" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,10 +12395,14 @@
         <v>-3723038.381395354</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J358" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,10 +12436,14 @@
         <v>-3716038.381395354</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J359" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,10 +12477,14 @@
         <v>-3718038.381395354</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J360" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12412,12 +12518,14 @@
         <v>-3714038.381395354</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>34.7</v>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12451,12 +12559,14 @@
         <v>-3696877.381395354</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>34.8</v>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12490,12 +12600,14 @@
         <v>-3663690.515995354</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>35.2</v>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12529,10 +12641,14 @@
         <v>-3740561.041195354</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J364" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12566,10 +12682,14 @@
         <v>-3658961.041195354</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="J365" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12606,7 +12726,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12643,7 +12765,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12680,7 +12804,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12714,12 +12840,12 @@
         <v>-3561433.412195354</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>35</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12756,7 +12882,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12793,7 +12921,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12830,7 +12960,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12864,12 +12996,12 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>35</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12906,7 +13038,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12943,7 +13077,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12980,7 +13116,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13017,7 +13155,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13054,7 +13194,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13088,10 +13230,14 @@
         <v>-3656895.322295354</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="J379" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,7 +13274,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13165,7 +13313,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13202,7 +13352,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13236,12 +13388,12 @@
         <v>-3541237.085995354</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,7 +13430,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13315,7 +13469,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13352,7 +13508,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13389,7 +13547,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13426,7 +13586,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13460,12 +13622,12 @@
         <v>-3825938.594995354</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,7 +13664,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13539,7 +13703,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13576,7 +13742,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13613,7 +13781,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,7 +13820,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,7 +13859,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13724,7 +13898,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,7 +13937,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13798,7 +13976,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13835,7 +14015,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13872,7 +14054,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13909,7 +14093,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13946,7 +14132,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13983,7 +14171,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,7 +14210,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14057,7 +14249,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14094,7 +14288,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14131,7 +14327,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14168,7 +14366,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14205,7 +14405,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14242,7 +14444,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14279,7 +14483,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14316,7 +14522,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14353,7 +14561,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14390,7 +14600,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14427,7 +14639,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14464,7 +14678,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14501,7 +14717,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14538,7 +14756,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14575,7 +14795,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14612,7 +14834,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14649,7 +14873,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14686,7 +14912,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14720,12 +14948,12 @@
         <v>-4247554.343171557</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="J423" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14762,7 +14990,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14799,7 +15029,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14836,7 +15068,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14873,7 +15107,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14910,7 +15146,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14947,7 +15185,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14984,7 +15224,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15021,7 +15263,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15058,7 +15302,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15095,7 +15341,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15132,7 +15380,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15169,7 +15419,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,7 +15458,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,7 +15497,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15280,7 +15536,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15317,7 +15575,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15354,7 +15614,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15391,7 +15653,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15428,7 +15692,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15465,7 +15731,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15502,7 +15770,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15536,12 +15806,12 @@
         <v>-4301250.147271557</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>35</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15575,12 +15845,12 @@
         <v>-4256577.172771557</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>35</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,7 +15887,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15654,7 +15926,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15691,7 +15965,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15728,7 +16004,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15765,7 +16043,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,7 +16082,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15836,12 +16118,12 @@
         <v>-4366771.309771557</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>35</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15875,12 +16157,12 @@
         <v>-4575842.029071557</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,12 +16196,12 @@
         <v>-4575832.029071557</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15956,7 +16238,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15993,7 +16277,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16030,7 +16316,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16067,7 +16355,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16104,7 +16394,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16141,7 +16433,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16178,7 +16472,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16215,7 +16511,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16252,7 +16550,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16289,7 +16589,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16326,7 +16628,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16363,7 +16667,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16400,7 +16706,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16437,7 +16745,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16474,7 +16784,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16508,12 +16820,12 @@
         <v>-4666215.041371558</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16547,12 +16859,12 @@
         <v>-4666193.132371558</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16586,12 +16898,12 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J473" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16628,7 +16940,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16662,12 +16976,12 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>35</v>
-      </c>
-      <c r="J475" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16704,7 +17018,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,12 +17054,12 @@
         <v>-4652855.669371558</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>35</v>
-      </c>
-      <c r="J477" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,12 +17093,12 @@
         <v>-4652833.734571558</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16816,12 +17132,12 @@
         <v>-4701456.832571559</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16858,7 +17174,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16895,7 +17213,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16932,7 +17252,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16969,7 +17291,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17006,7 +17330,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17043,7 +17369,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17080,7 +17408,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17117,7 +17447,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17154,7 +17486,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17191,7 +17525,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17228,7 +17564,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17265,7 +17603,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17302,7 +17642,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17336,12 +17678,12 @@
         <v>-4742840.276544287</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J493" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17375,12 +17717,12 @@
         <v>-4742824.242544287</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J494" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17414,12 +17756,12 @@
         <v>-4753424.242544287</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J495" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17456,7 +17798,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17493,7 +17837,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17530,7 +17876,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,7 +17915,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,7 +17954,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17638,12 +17990,12 @@
         <v>-4819079.077644287</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J501" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17680,7 +18032,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17717,7 +18071,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17754,7 +18110,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,7 +18149,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17828,7 +18188,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17865,7 +18227,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17902,7 +18266,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17939,7 +18305,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17976,7 +18344,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18013,7 +18383,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18050,7 +18422,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18087,7 +18461,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18124,7 +18500,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18161,7 +18539,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18198,7 +18578,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18235,7 +18617,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18272,7 +18656,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18309,7 +18695,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18346,7 +18734,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18383,7 +18773,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18420,7 +18812,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18457,7 +18851,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18494,7 +18890,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18528,12 +18926,12 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>36</v>
-      </c>
-      <c r="J525" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18570,7 +18968,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18607,7 +19007,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18644,7 +19046,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18681,7 +19085,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18718,7 +19124,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18755,7 +19163,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18792,7 +19202,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18829,7 +19241,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18866,7 +19280,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18903,7 +19319,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18940,7 +19358,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18977,7 +19397,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19014,7 +19436,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19051,7 +19475,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19088,7 +19514,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19125,7 +19553,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19162,7 +19592,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19199,7 +19631,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19236,7 +19670,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19273,7 +19709,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19310,7 +19748,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19347,7 +19787,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19384,7 +19826,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19421,7 +19865,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19458,7 +19904,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19495,7 +19943,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19532,7 +19982,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19569,7 +20021,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19606,7 +20060,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19643,7 +20099,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19680,7 +20138,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19717,7 +20177,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19754,7 +20216,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19791,7 +20255,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19828,7 +20294,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19865,7 +20333,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19902,7 +20372,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19939,7 +20411,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19976,7 +20450,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20013,7 +20489,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20050,7 +20528,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20087,7 +20567,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20124,7 +20606,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20161,7 +20645,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20198,7 +20684,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20235,7 +20723,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20272,7 +20762,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20309,7 +20801,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20346,7 +20840,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20383,7 +20879,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20420,7 +20918,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20457,7 +20957,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20494,7 +20996,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20531,7 +21035,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20568,7 +21074,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20605,7 +21113,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20642,7 +21152,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20679,7 +21191,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,7 +21230,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20753,7 +21269,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20790,7 +21308,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20827,7 +21347,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20864,7 +21386,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20901,7 +21425,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20938,7 +21464,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20975,7 +21503,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21012,7 +21542,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21049,7 +21581,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21086,7 +21620,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21123,7 +21659,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21160,7 +21698,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21197,7 +21737,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21234,7 +21776,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21271,7 +21815,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21308,7 +21854,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21345,7 +21893,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21382,7 +21932,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21419,7 +21971,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21456,7 +22010,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21493,7 +22049,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21530,7 +22088,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21567,7 +22127,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21604,7 +22166,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21641,7 +22205,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21678,7 +22244,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21715,7 +22283,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21752,7 +22322,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21789,7 +22361,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21826,7 +22400,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21863,7 +22439,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21900,7 +22478,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21937,7 +22517,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21974,7 +22556,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22011,7 +22595,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22048,7 +22634,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22085,7 +22673,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22122,7 +22712,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22159,7 +22751,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22196,7 +22790,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22233,7 +22829,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22270,7 +22868,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22307,7 +22907,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22344,7 +22946,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22381,7 +22985,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22418,7 +23024,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22455,7 +23063,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22492,7 +23102,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22529,7 +23141,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22566,7 +23180,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22603,7 +23219,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22640,7 +23258,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22677,7 +23297,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22714,7 +23336,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22751,7 +23375,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22788,7 +23414,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22825,7 +23453,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22862,7 +23492,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22899,7 +23531,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22936,7 +23570,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22973,7 +23609,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23010,7 +23648,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23047,7 +23687,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23084,7 +23726,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23096,6 +23740,6 @@
       <c r="M648" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-27 BackTest LAMB.xlsx
@@ -451,7 +451,7 @@
         <v>-604638.9589</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-595211.0917999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-592863.7823</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-600806.7823</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-600791.9323</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-622384.6008</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-620312.0682</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-621812.0682</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-632412.0682</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-621566.5179352631</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-648330.4546352631</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-641330.4546352631</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-681930.4546352631</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-781219.9393352631</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-774039.1061352631</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-772002.1741352631</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-913402.1741352631</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-927623.1741352631</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-927608.3241352631</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-929108.3241352631</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-930108.3241352631</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-929474.2623352631</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-929858.2623352631</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-944248.0227352631</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-941952.645701842</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-949725.369068421</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-944715.130068421</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-968878.631268421</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1007122.631268421</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-991022.631268421</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1077097.631268421</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1141481.693268421</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1793872.988083448</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1763350.856683448</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1763350.856683448</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1762806.307483448</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1770574.608083448</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1775610.608083448</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1779126.642083448</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1779126.642083448</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1814040.791283448</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1796440.791283448</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1796440.791283448</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1812692.791283448</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1812692.791283448</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1861292.791283448</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1861292.791283448</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -11770,11 +11770,17 @@
         <v>-3567762.692695354</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11809,17 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +11848,17 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +11887,17 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +11926,17 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +11965,17 @@
         <v>-3588162.692695354</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12004,17 @@
         <v>-3666738.418995354</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12047,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12080,17 @@
         <v>-3664792.134395354</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12119,17 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12158,17 @@
         <v>-3662756.473495354</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12197,17 @@
         <v>-3703683.304895354</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12240,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12277,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12314,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12351,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12384,17 @@
         <v>-3714038.381395354</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>34.7</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12423,17 @@
         <v>-3696877.381395354</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12462,17 @@
         <v>-3663690.515995354</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12505,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12538,17 @@
         <v>-3658961.041195354</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12581,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12618,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12655,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12692,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12729,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12762,17 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12801,17 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>35</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +12840,17 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>35</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12879,17 @@
         <v>-3563997.062895354</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>35</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12918,17 @@
         <v>-3613997.062895354</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>35</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +12957,17 @@
         <v>-3613997.062895354</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +12996,17 @@
         <v>-3613997.062895354</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13035,17 @@
         <v>-3658797.062895354</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13074,17 @@
         <v>-3656895.322295354</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>34.7</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13113,17 @@
         <v>-3607481.288295354</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>34.9</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13152,17 @@
         <v>-3540737.085995354</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13191,17 @@
         <v>-3541237.085995354</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13230,17 @@
         <v>-3541237.085995354</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13269,15 @@
         <v>-3774841.608695354</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13306,15 @@
         <v>-3773341.608695354</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13343,15 @@
         <v>-3773341.608695354</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13380,15 @@
         <v>-3724041.608695354</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13417,15 @@
         <v>-3725938.594995354</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13454,15 @@
         <v>-3825938.594995354</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13491,15 @@
         <v>-3810938.594995354</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13528,15 @@
         <v>-3812938.594995354</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13565,15 @@
         <v>-3829263.433695354</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13606,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13643,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13680,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13717,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13754,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13791,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13828,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +13865,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13902,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13939,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13976,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14013,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14050,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14087,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14124,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14161,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14198,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14235,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14272,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14309,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14346,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14383,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14420,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14457,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14494,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14531,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14568,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14605,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14642,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14679,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14716,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14753,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14790,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14827,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14864,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14901,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14938,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14975,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15012,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15049,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15086,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15123,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15160,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15197,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15234,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15271,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15308,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15345,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15382,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15419,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15456,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15489,17 @@
         <v>-4301250.147271557</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>35</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15528,17 @@
         <v>-4301250.147271557</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>35</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15567,17 @@
         <v>-4256577.172771557</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>35</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15610,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15647,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15680,17 @@
         <v>-4398214.553471557</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>35</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15719,17 @@
         <v>-4398214.553471557</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>35</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15758,17 @@
         <v>-4391621.906271557</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>35</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15797,17 @@
         <v>-4401621.906271557</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15836,17 @@
         <v>-4366771.309771557</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>35</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15875,17 @@
         <v>-4575842.029071557</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15918,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +15955,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +15992,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16029,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +16062,17 @@
         <v>-4572912.142571557</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +16101,17 @@
         <v>-4572902.142571557</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +16140,17 @@
         <v>-4583642.126671557</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +16179,17 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +16218,17 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +16257,17 @@
         <v>-4610027.143071557</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +16296,17 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +16335,17 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>35</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16374,17 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>35</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16413,17 @@
         <v>-4613696.287671558</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>35</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16452,17 @@
         <v>-4610199.805871557</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>35</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16491,17 @@
         <v>-4666215.041371558</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16530,17 @@
         <v>-4666215.041371558</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>34.9</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16569,17 @@
         <v>-4666193.132371558</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>34.9</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16608,17 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16647,17 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>35</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16686,17 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>35</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16725,17 @@
         <v>-4668145.338371558</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>35</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16764,17 @@
         <v>-4652855.669371558</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>35</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16803,17 @@
         <v>-4652833.734571558</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16842,17 @@
         <v>-4701456.832571559</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16881,17 @@
         <v>-4701456.832571559</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16920,17 @@
         <v>-4712456.832571559</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16959,17 @@
         <v>-4630593.905671558</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16998,17 @@
         <v>-4682330.344571559</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +17037,17 @@
         <v>-4665471.679844286</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>35.1</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +17076,17 @@
         <v>-4665471.679844286</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +17115,17 @@
         <v>-4665461.679844286</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +17154,17 @@
         <v>-4670414.036544287</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +17193,17 @@
         <v>-4720618.367744287</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +17232,17 @@
         <v>-4720618.367744287</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +17271,17 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16588,11 +17310,17 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16621,11 +17349,17 @@
         <v>-4695723.678544287</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +17388,17 @@
         <v>-4742840.276544287</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +17427,17 @@
         <v>-4742824.242544287</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +17466,17 @@
         <v>-4753424.242544287</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +17505,17 @@
         <v>-4783424.242544287</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +17544,17 @@
         <v>-4781988.605244287</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +17583,17 @@
         <v>-4790402.149144287</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +17622,17 @@
         <v>-4790104.387144287</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +17661,17 @@
         <v>-4790104.387144287</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +17700,17 @@
         <v>-4819079.077644287</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17739,17 @@
         <v>-4731458.704044287</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17778,17 @@
         <v>-4739664.524544287</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17817,17 @@
         <v>-4734662.194944288</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>35.2</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17856,17 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>35.3</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17895,17 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17934,17 @@
         <v>-4726518.232044288</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +17973,17 @@
         <v>-4531894.781044288</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +18012,17 @@
         <v>-4531985.690044288</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +18051,17 @@
         <v>-4516324.346844288</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>35.4</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +18090,17 @@
         <v>-4451379.556544287</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +18129,17 @@
         <v>-4481542.934144287</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +18168,17 @@
         <v>-4473542.934144287</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +18207,17 @@
         <v>-4433527.526844287</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +18246,17 @@
         <v>-4531487.668544287</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>35.7</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +18285,17 @@
         <v>-4401580.210444286</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>35.5</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +18324,17 @@
         <v>-4401580.210444286</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>35.9</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +18363,17 @@
         <v>-4401596.547144286</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>35.9</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +18402,17 @@
         <v>-4399286.547144286</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>35.6</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +18441,17 @@
         <v>-4503200.900444286</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>35.9</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +18484,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +18517,17 @@
         <v>-4502137.825544286</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>35.9</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +18556,17 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>35.9</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +18595,15 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +18636,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +18669,15 @@
         <v>-4419881.367389287</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +18706,15 @@
         <v>-4403717.956889287</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +18743,15 @@
         <v>-4475775.321989287</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18780,15 @@
         <v>-4475753.472689287</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18817,15 @@
         <v>-4510868.735089287</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18854,15 @@
         <v>-4517869.217089287</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18891,15 @@
         <v>-4624250.762689287</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18928,15 @@
         <v>-4624469.183589287</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18965,15 @@
         <v>-4624469.183589287</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +19002,15 @@
         <v>-4615446.090789287</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +19039,15 @@
         <v>-4593399.341989287</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +19076,15 @@
         <v>-4586652.320189287</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +19113,15 @@
         <v>-4605379.341289287</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +19150,15 @@
         <v>-4406790.499689287</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +19187,15 @@
         <v>-4665449.436689286</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +19224,15 @@
         <v>-4665241.756189287</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +19261,15 @@
         <v>-4663741.756189287</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +19298,15 @@
         <v>-4673741.756189287</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +19335,15 @@
         <v>-4718341.756189287</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +19372,15 @@
         <v>-4754016.798989287</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +19409,15 @@
         <v>-4753982.210789287</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +19446,15 @@
         <v>-4791182.210789287</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +19483,15 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +19520,15 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +19557,15 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +19594,15 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +19631,15 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +19668,15 @@
         <v>-4822582.210789287</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +19705,15 @@
         <v>-4816935.936789286</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +19742,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +19779,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +19816,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +19853,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +19890,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +19927,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +19964,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +20001,15 @@
         <v>-4845104.316889286</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +20038,15 @@
         <v>-4873904.316889286</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +20075,15 @@
         <v>-4848894.061489286</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +20112,15 @@
         <v>-4847894.061489286</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +20149,15 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +20186,15 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +20223,15 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +20260,15 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +20297,15 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +20334,15 @@
         <v>-4873726.751389286</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +20371,15 @@
         <v>-4873427.887189286</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +20408,15 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +20445,15 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +20482,15 @@
         <v>-4867890.282704988</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +20519,15 @@
         <v>-4912123.135804988</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +20556,15 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +20593,15 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +20630,15 @@
         <v>-4862730.213404989</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +20667,15 @@
         <v>-5027411.218509692</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19558,11 +20704,15 @@
         <v>-5040811.218509692</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +20741,15 @@
         <v>-5015170.954309692</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +20778,15 @@
         <v>-5140738.686909691</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +20819,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +20856,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +20893,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +20930,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,15 +20963,15 @@
         <v>-5718685.462909692</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J588" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="K588" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,17 +21000,13 @@
         <v>-5716127.534009692</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J589" t="n">
-        <v>35.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L589" t="n">
@@ -19867,17 +21037,13 @@
         <v>-5737053.738709692</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J590" t="n">
-        <v>35.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L590" t="n">
@@ -19908,15 +21074,15 @@
         <v>-5731234.344109692</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J591" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K591" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19945,17 +21111,13 @@
         <v>-5683841.736309691</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J592" t="n">
-        <v>35.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L592" t="n">
@@ -19986,17 +21148,13 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J593" t="n">
-        <v>35.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L593" t="n">
@@ -20027,15 +21185,15 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J594" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K594" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20069,12 +21227,10 @@
       <c r="I595" t="n">
         <v>35.6</v>
       </c>
-      <c r="J595" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L595" t="n">
@@ -20105,14 +21261,10 @@
         <v>-5680531.299709692</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J596" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20146,14 +21298,10 @@
         <v>-5655512.299709692</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J597" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20187,14 +21335,10 @@
         <v>-5668620.287009692</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="J598" t="n">
-        <v>35.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20233,9 +21377,7 @@
       <c r="I599" t="n">
         <v>35.4</v>
       </c>
-      <c r="J599" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20274,9 +21416,7 @@
       <c r="I600" t="n">
         <v>35.3</v>
       </c>
-      <c r="J600" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20310,12 +21450,12 @@
         <v>-5673298.151209692</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20354,9 +21494,7 @@
       <c r="I602" t="n">
         <v>35.8</v>
       </c>
-      <c r="J602" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20395,9 +21533,7 @@
       <c r="I603" t="n">
         <v>35.4</v>
       </c>
-      <c r="J603" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20436,9 +21572,7 @@
       <c r="I604" t="n">
         <v>35.5</v>
       </c>
-      <c r="J604" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20472,12 +21606,12 @@
         <v>-5644040.661809692</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20511,12 +21645,12 @@
         <v>-5652164.264809692</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20550,12 +21684,12 @@
         <v>-5648608.898609692</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20589,12 +21723,12 @@
         <v>-5628658.898609692</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,12 +21762,12 @@
         <v>-5606512.517509692</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>36</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20670,9 +21804,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20706,12 +21838,12 @@
         <v>-5606512.517509692</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20745,12 +21877,12 @@
         <v>-5631560.449709692</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,12 +21916,12 @@
         <v>-5401828.600688145</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20826,9 +21958,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20865,9 +21995,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20901,12 +22029,12 @@
         <v>-5158994.189388145</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20943,9 +22071,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20982,9 +22108,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21021,9 +22145,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21057,12 +22179,12 @@
         <v>-5160510.197088145</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>35.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21099,9 +22221,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21138,9 +22258,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21177,9 +22295,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21216,9 +22332,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21255,9 +22369,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21294,9 +22406,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21333,9 +22443,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21372,9 +22480,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21411,9 +22517,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21450,9 +22554,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21486,19 +22588,17 @@
         <v>-4845718.756688147</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L631" t="n">
-        <v>1.009044943820225</v>
+        <v>1</v>
       </c>
       <c r="M631" t="inlineStr"/>
     </row>
@@ -21525,11 +22625,15 @@
         <v>-4843306.676088147</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21558,11 +22662,15 @@
         <v>-4847184.679688147</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21591,11 +22699,15 @@
         <v>-4847184.679688147</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21624,11 +22736,15 @@
         <v>-4842240.653988147</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21657,11 +22773,15 @@
         <v>-4868308.664188148</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21690,11 +22810,15 @@
         <v>-4870565.089388148</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21723,11 +22847,15 @@
         <v>-4925720.410088148</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21756,11 +22884,15 @@
         <v>-4942189.538988148</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21789,11 +22921,17 @@
         <v>-4988195.899188148</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>35.9</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21822,11 +22960,17 @@
         <v>-4988185.799188148</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>35.8</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21855,11 +22999,17 @@
         <v>-4996447.925388148</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>36</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21888,11 +23038,17 @@
         <v>-5011273.308732841</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>35.8</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21921,11 +23077,17 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>35.7</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21954,11 +23116,17 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>35.8</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21987,11 +23155,17 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>35.8</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22020,11 +23194,17 @@
         <v>-4989691.822743456</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>35.8</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22053,11 +23233,17 @@
         <v>-4989681.822743456</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>35.8</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
